--- a/cSingsSummTargetOpposit/_seed012_24_03_12.xlsx
+++ b/cSingsSummTargetOpposit/_seed012_24_03_12.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="seed0_23_11_26" sheetId="1" r:id="rId1"/>
     <sheet name="seed1_23_11_26" sheetId="2" r:id="rId2"/>
     <sheet name="seed2_23_11_26" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -875,7 +875,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,18 +2743,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:I68"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2583</v>
       </c>
@@ -2860,8 +2862,12 @@
         <f>seed0_23_11_26!G2-seed1_23_11_26!G2</f>
         <v>-1188</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>A2*K2+B2*L2+C2*M2+D2*N2+E2*O2+F2*P2+G2*Q2</f>
+        <v>-22001585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2100</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>-696</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1869</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2996</v>
       </c>
@@ -2975,8 +2981,33 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>525</v>
+      </c>
+      <c r="L5">
+        <v>945</v>
+      </c>
+      <c r="M5">
+        <v>807</v>
+      </c>
+      <c r="N5">
+        <v>1064</v>
+      </c>
+      <c r="O5">
+        <v>670</v>
+      </c>
+      <c r="P5">
+        <v>-2570</v>
+      </c>
+      <c r="Q5">
+        <v>1029</v>
+      </c>
+      <c r="S5">
+        <f>K2*K5+L2*L5+M2*M5+N2*N5+O2*O5+P2*P5+Q2*Q5</f>
+        <v>-8191650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2954</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1476</v>
       </c>
@@ -3034,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2275</v>
       </c>
@@ -3063,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2170</v>
       </c>
@@ -3092,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -3121,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1799</v>
       </c>
@@ -3150,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2225</v>
       </c>
@@ -3179,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1470</v>
       </c>
@@ -3208,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1673</v>
       </c>
@@ -3237,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2064</v>
       </c>
@@ -3266,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1694</v>
       </c>
@@ -4812,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:Q5"/>
     </sheetView>
   </sheetViews>
